--- a/assets/disciplinas/LOM3084.xlsx
+++ b/assets/disciplinas/LOM3084.xlsx
@@ -137,11 +137,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1021 -  Física IV  (Requisito fraco)
+    <t xml:space="preserve">LOM3107 -  Mecânica dos Sólidos Deformáveis  (Requisito fraco)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3101 -  Mecânica dos Materiais  (Requisito fraco)
+    <t xml:space="preserve">LOM3109 -  Fundamentos da Física Moderna  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3084.xlsx
+++ b/assets/disciplinas/LOM3084.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Abordar os aspectos fundamentais do assunto, visando a formação de engenheiros habilitados para a escolha adequada do tipo de ensaio não-destrutivo para o controle e detecção de defeitos em estruturas e componentes de engenharia, sua condução e a correta interpretação dos resultados.</t>
+    <t>3586455 - Cassius Olivio Figueiredo Terra Ruchert</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,59 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3586455 - Cassius Olivio Figueiredo Terra Ruchert</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Ensaios Não-Destrutivos (END): princípios e tipos. Nomenclatura. Técnicas especiais de END. Classificação, normas e especificações.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Introdução aos Ensaios Não-Destrutivos (END). Tipos mais comuns de END. Líquidos penetrantes: princípios, materiais, procedimentos, aplicações e limitações, normas e especificações, critérios de aceitação, qualificações. Ensaio por ultrassom: fundamentos, equipamentos, aplicações e limitações, transdutores, critérios de aceitação, normas e especificações, qualificações. Ensaio por partículas magnéticas: propriedades magnéticas, fundamentos do ensaio, equipamentos, aplicações e limitações, critérios de aceitação, normas e especificações, qualificação. Ensaio por correntes parasitas: fundamentos, equipamentos, aplicações e limitações, critérios de aceitação, normas e especificações, qualificação. Ensaio radiográfico: radiações, princípio, fontes de radiação, Proteção radiológica (Normas CNEN), interpretação, descontinuidades típicas, aplicações e limitações, critérios de aceitação, qualificação. Métodos especiais de END: Emissão de Barkhausen, ensaio de vibração.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações: P1 e P2</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Conceito Final = (P1+P2)/2 ou (P1+MS)/2       (MS = média de seminários)</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>API Standards. American Petroleum Institute; 2011. 
-ASM Handbook, Vol. 17: Non destructive evaluation and quality control. American Society for Materials; 1989. 
-ASME Handbook, Vol. : Non destructive evaluation and quality control. American Society for Materials; 1989. 
-ASNT Handbook, Vol. 10: Nondestructive Testing Overview. American Society for Nondestructive Testing, 1993. 
-CARTZ, L. Nondestructive Testing. American Society for Testing and Materials, 1995.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -687,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -698,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3084.xlsx
+++ b/assets/disciplinas/LOM3084.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Abordar os aspectos fundamentais do assunto, visando a formação de engenheiros habilitados para a escolha adequada do tipo de ensaio não-destrutivo para o controle e detecção de defeitos em estruturas e componentes de engenharia, sua condução e a correta interpretação dos resultados.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3586455 - Cassius Olivio Figueiredo Terra Ruchert</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Ensaios Não-Destrutivos (END): princípios e tipos. Nomenclatura. Técnicas especiais de END. Classificação, normas e especificações.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução aos Ensaios Não-Destrutivos (END). Tipos mais comuns de END. Líquidos penetrantes: princípios, materiais, procedimentos, aplicações e limitações, normas e especificações, critérios de aceitação, qualificações. Ensaio por ultrassom: fundamentos, equipamentos, aplicações e limitações, transdutores, critérios de aceitação, normas e especificações, qualificações. Ensaio por partículas magnéticas: propriedades magnéticas, fundamentos do ensaio, equipamentos, aplicações e limitações, critérios de aceitação, normas e especificações, qualificação. Ensaio por correntes parasitas: fundamentos, equipamentos, aplicações e limitações, critérios de aceitação, normas e especificações, qualificação. Ensaio radiográfico: radiações, princípio, fontes de radiação, Proteção radiológica (Normas CNEN), interpretação, descontinuidades típicas, aplicações e limitações, critérios de aceitação, qualificação. Métodos especiais de END: Emissão de Barkhausen, ensaio de vibração.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,29 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840793 - Sérgio Schneider</t>
+    <t>Serão aplicadas duas avaliações: P1 e P2</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações: P1 e P2</t>
+    <t>Conceito Final = (P1+P2)/2 ou (P1+MS)/2       (MS = média de seminários)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Conceito Final = (P1+P2)/2 ou (P1+MS)/2       (MS = média de seminários)</t>
+    <t>A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>API Standards. American Petroleum Institute; 2011. 
+ASM Handbook, Vol. 17: Non destructive evaluation and quality control. American Society for Materials; 1989. 
+ASME Handbook, Vol. : Non destructive evaluation and quality control. American Society for Materials; 1989. 
+ASNT Handbook, Vol. 10: Nondestructive Testing Overview. American Society for Nondestructive Testing, 1993. 
+CARTZ, L. Nondestructive Testing. American Society for Testing and Materials, 1995.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,62 +623,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -677,7 +687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -688,25 +698,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
